--- a/build-a-computer/nand2tetris/projects/01/Tasks.xlsx
+++ b/build-a-computer/nand2tetris/projects/01/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Task</t>
   </si>
@@ -365,6 +365,37 @@
     Or(a=t04, b=in[5], out=t05);
     Or(a=t05, b=in[6], out=t06);
     Or(a=t06, b=in[7], out=out);
+}</t>
+  </si>
+  <si>
+    <t>CHIP Mux4Way16 {
+    IN a[16], b[16], c[16], d[16], sel[2];
+    OUT out[16];
+    PARTS:
+    // Put your code here:
+    Mux16(a=a, b=b, sel=sel[0], out=b01);
+    Mux16(a=c, b=d, sel=sel[0], out=b02);
+    Mux16(a=b01, b=b02, sel=sel[1], out=out);
+}</t>
+  </si>
+  <si>
+    <t>[0] is the LSB</t>
+  </si>
+  <si>
+    <t>CHIP Mux8Way16 {
+    IN a[16], b[16], c[16], d[16],
+       e[16], f[16], g[16], h[16],
+       sel[3];
+    OUT out[16];
+    PARTS:
+    // Put your code here:
+    Mux16(a=a, b=b, sel=sel[0], out=b01);
+    Mux16(a=c, b=d, sel=sel[0], out=b02);
+    Mux16(a=e, b=f, sel=sel[0], out=b03);
+    Mux16(a=g, b=h, sel=sel[0], out=b04);
+    Mux16(a=b01, b=b02, sel=sel[1], out=b11);
+    Mux16(a=b03, b=b04, sel=sel[1], out=b12);
+    Mux16(a=b11, b=b12, sel=sel[2], out=out);
 }</t>
   </si>
 </sst>
@@ -740,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,17 +1010,27 @@
         <v>43123</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="135.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="214.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1038,15 @@
         <v>31</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43159</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">

--- a/build-a-computer/nand2tetris/projects/01/Tasks.xlsx
+++ b/build-a-computer/nand2tetris/projects/01/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Task</t>
   </si>
@@ -396,6 +396,24 @@
     Mux16(a=b01, b=b02, sel=sel[1], out=b11);
     Mux16(a=b03, b=b04, sel=sel[1], out=b12);
     Mux16(a=b11, b=b12, sel=sel[2], out=out);
+}</t>
+  </si>
+  <si>
+    <t>CHIP DMux4Way {
+    IN in, sel[2];
+    OUT a, b, c, d;
+    PARTS:
+    // Put your code here:
+    Not(in=sel[0], out=NotSel0);
+    Not(in=sel[1], out=NotSel1);
+    And(a=NotSel0, b=NotSel1, out=IsA);
+    And(a=sel[0], b=NotSel1, out=IsB);
+    And(a=NotSel0, b=sel[1], out=IsC);
+    And(a=sel[0], b=sel[1], out=IsD);
+    And(a=in, b=IsA, out=a);
+    And(a=in, b=IsB, out=b);
+    And(a=in, b=IsC, out=c);
+    And(a=in, b=IsD, out=d);
 }</t>
   </si>
 </sst>
@@ -771,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1066,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="214.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1056,7 +1074,15 @@
         <v>33</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="5">
+        <v>43161</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">

--- a/build-a-computer/nand2tetris/projects/01/Tasks.xlsx
+++ b/build-a-computer/nand2tetris/projects/01/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
@@ -414,6 +414,37 @@
     And(a=in, b=IsB, out=b);
     And(a=in, b=IsC, out=c);
     And(a=in, b=IsD, out=d);
+}</t>
+  </si>
+  <si>
+    <t>CHIP DMux8Way {
+    IN in, sel[3];
+    OUT a, b, c, d, e, f, g, h;
+    PARTS:
+    // Put your code here:
+    Not(in=sel[0], out=NotSel0);
+    Not(in=sel[1], out=NotSel1);
+    Not(in=sel[2], out=NotSel2);
+    And(a=NotSel1, b=NotSel0, out=N1N0);
+    And(a=NotSel1, b=sel[0], out=N1S0);
+    And(a=sel[1], b=NotSel0, out=S1N0);
+    And(a=sel[1], b=sel[0], out=S1S0);
+    And(a=NotSel2, b=N1N0, out=IsA);
+    And(a=NotSel2, b=N1S0, out=IsB);
+    And(a=NotSel2, b=S1N0, out=IsC);
+    And(a=NotSel2, b=S1S0, out=IsD);
+    And(a=sel[2], b=N1N0, out=IsE);
+    And(a=sel[2], b=N1S0, out=IsF);
+    And(a=sel[2], b=S1N0, out=IsG);
+    And(a=sel[2], b=S1S0, out=IsH);
+    And(a=in, b=IsA, out=a);
+    And(a=in, b=IsB, out=b);
+    And(a=in, b=IsC, out=c);
+    And(a=in, b=IsD, out=d);
+    And(a=in, b=IsE, out=e);
+    And(a=in, b=IsF, out=f);
+    And(a=in, b=IsG, out=g);
+    And(a=in, b=IsH, out=h);
 }</t>
   </si>
 </sst>
@@ -484,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,7 +537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +820,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1114,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="372" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1092,7 +1122,15 @@
         <v>35</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43161</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
